--- a/biology/Botanique/Saxifraga_valdensis/Saxifraga_valdensis.xlsx
+++ b/biology/Botanique/Saxifraga_valdensis/Saxifraga_valdensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Saxifrage de Vaud, ou Saxifrage vaudoise (Saxifraga valdensis), est une espèce de plante herbacée vivace du genre  Saxifraga et de la famille des Saxifragacées, endémique à quelques localités des Alpes cottiennes, entre la France et l'Italie.
 Synonymes
 Saxifraga diapensioides subsp. valdensis (DC.) Bonnier &amp; Layens, 1894
-Saxifraga compacta Sternb., 1822 [1]
+Saxifraga compacta Sternb., 1822 
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rosette de feuilles très denses
 Tiges rougeâtres couvertes de glandes collantes
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce n'est présente que dans une dizaine de localités en France et une en Italie, à une altitude de 1 800 à 3 000 mètres. La population est estimée à environ un millier de plants et elle semble stable dans le mesure où de nouvelles infrastructures touristiques ne menacent pas les sites.
 L'espèce est intégralement protégée en France et en Italie.
